--- a/Application/DriverReports Route - 0.xlsx
+++ b/Application/DriverReports Route - 0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Route: 0</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t>Thurs</t>
+    <t>Thu</t>
   </si>
   <si>
     <t>Fri</t>
@@ -78,7 +78,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -86,12 +86,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -103,36 +214,115 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="2" max="2" width="7.5" customWidth="true"/>
+    <col min="3" max="3" width="11.25" customWidth="true"/>
+    <col min="4" max="4" width="3.90625" customWidth="true"/>
+    <col min="5" max="5" width="3.90625" customWidth="true"/>
+    <col min="6" max="6" width="3.90625" customWidth="true"/>
+    <col min="7" max="7" width="3.90625" customWidth="true"/>
+    <col min="8" max="8" width="3.90625" customWidth="true"/>
+    <col min="9" max="9" width="59.0625" customWidth="true"/>
+    <col min="10" max="10" width="29.53125" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="6">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="8">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s" s="9">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="22">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s" s="23">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s" s="24">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s" s="25">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s" s="26">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s" s="27">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s" s="28">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s" s="30">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s" s="31">
         <v>13</v>
       </c>
     </row>

--- a/Application/DriverReports Route - 0.xlsx
+++ b/Application/DriverReports Route - 0.xlsx
@@ -61,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -69,8 +69,143 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,8 +218,14 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
+      <patternFill patternType="mediumGray">
         <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="23"/>
+        <bgColor indexed="23"/>
       </patternFill>
     </fill>
   </fills>
@@ -196,61 +337,61 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -265,15 +406,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.4375" customWidth="true"/>
+    <col min="1" max="1" width="17.8125" customWidth="true"/>
     <col min="2" max="2" width="11.25" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="3.90625" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
     <col min="6" max="6" width="3.90625" customWidth="true"/>
     <col min="7" max="7" width="3.90625" customWidth="true"/>
-    <col min="8" max="8" width="66.140625" customWidth="true"/>
-    <col min="9" max="9" width="33.0703125" customWidth="true"/>
+    <col min="8" max="8" width="59.890625" customWidth="true"/>
+    <col min="9" max="9" width="29.9453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
